--- a/项目进度及规范/环渤海项目安排进度.xlsx
+++ b/项目进度及规范/环渤海项目安排进度.xlsx
@@ -223,7 +223,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Zh.Y - 4: </t>
+      <t xml:space="preserve">Jin.H - 3: </t>
     </r>
     <r>
       <rPr>
@@ -233,7 +233,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>合同模板基本信息管理</t>
+      <t>资源管理（非图形化的辅助部分）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,13 +249,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>合同模板在线编辑</t>
+      <t>合同模板在线编辑（完成部分）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jin.H - 3: </t>
+      <t xml:space="preserve">Zh.Y - 4: </t>
     </r>
     <r>
       <rPr>
@@ -265,7 +265,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>资源管理（非图形化的辅助部分）</t>
+      <t>合同模板基本信息管理（完成部分）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,10 +1073,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>125413</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1086,7 +1086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4514850" y="3476625"/>
-          <a:ext cx="1038225" cy="1588"/>
+          <a:ext cx="1295400" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1118,13 +1118,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:rowOff>295277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>295276</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1132,9 +1132,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4524375" y="3895725"/>
-          <a:ext cx="1066800" cy="1"/>
+        <a:xfrm>
+          <a:off x="4524375" y="3895727"/>
+          <a:ext cx="1257300" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1259,16 +1259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228603</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200028</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1277,7 +1277,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5381625" y="3228975"/>
+          <a:off x="6029325" y="4257675"/>
           <a:ext cx="638175" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1307,15 +1307,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1325,8 +1325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6010275" y="4267200"/>
-          <a:ext cx="647700" cy="9525"/>
+          <a:off x="5381625" y="3209926"/>
+          <a:ext cx="619125" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1355,16 +1355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>266701</xdr:rowOff>
+      <xdr:rowOff>266702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1373,8 +1373,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5591175" y="4695826"/>
-          <a:ext cx="1047750" cy="19049"/>
+          <a:off x="5810250" y="4695827"/>
+          <a:ext cx="828675" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1403,10 +1403,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1421,8 +1421,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5648325" y="5114925"/>
-          <a:ext cx="1028700" cy="19050"/>
+          <a:off x="5800725" y="5114926"/>
+          <a:ext cx="876300" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1999,7 +1999,7 @@
   <dimension ref="B2:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="14" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
       <c r="B14" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>13</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="16" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>10</v>

--- a/项目进度及规范/环渤海项目安排进度.xlsx
+++ b/项目进度及规范/环渤海项目安排进度.xlsx
@@ -91,22 +91,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Zh.C - 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息管理模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Zh.Y - 2:</t>
     </r>
     <r>
@@ -266,6 +250,22 @@
         <charset val="134"/>
       </rPr>
       <t>合同模板基本信息管理（完成部分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zh.C - 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息管理模块，并补充其他一些琐碎功能</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,16 +875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>192088</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -892,9 +892,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2924175" y="981075"/>
-          <a:ext cx="457200" cy="1588"/>
+        <a:xfrm flipV="1">
+          <a:off x="3209925" y="1019175"/>
+          <a:ext cx="895350" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -929,7 +929,7 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>211138</xdr:rowOff>
@@ -941,8 +941,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933700" y="1352550"/>
-          <a:ext cx="457200" cy="1588"/>
+          <a:off x="3228975" y="1352550"/>
+          <a:ext cx="885825" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -971,16 +971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>220663</xdr:rowOff>
+      <xdr:rowOff>211138</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -989,8 +989,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="2124075"/>
-          <a:ext cx="847725" cy="1588"/>
+          <a:off x="4105275" y="2838450"/>
+          <a:ext cx="1247775" cy="1588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1019,14 +1019,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -1036,9 +1036,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="1724025"/>
-          <a:ext cx="904875" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="4086225" y="2447925"/>
+          <a:ext cx="1304925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1067,16 +1067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1084,9 +1084,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4514850" y="3476625"/>
-          <a:ext cx="1295400" cy="19050"/>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="3486150"/>
+          <a:ext cx="1295400" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1115,16 +1115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>295277</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>276227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1132,9 +1132,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="3895727"/>
-          <a:ext cx="1257300" cy="9523"/>
+        <a:xfrm flipV="1">
+          <a:off x="5372100" y="3876675"/>
+          <a:ext cx="1323975" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1163,16 +1163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:rowOff>228602</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1181,8 +1181,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4486275" y="1685925"/>
-          <a:ext cx="914400" cy="19051"/>
+          <a:off x="4505325" y="1724025"/>
+          <a:ext cx="1323975" cy="9527"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1214,13 +1214,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>196962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1229,8 +1229,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3238500" y="2066925"/>
-          <a:ext cx="3400425" cy="28576"/>
+          <a:off x="3238500" y="2073387"/>
+          <a:ext cx="3438525" cy="22115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1259,62 +1259,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200028</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6029325" y="4257675"/>
-          <a:ext cx="638175" cy="3"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1325,104 +1277,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5381625" y="3209926"/>
-          <a:ext cx="619125" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>266702</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5810250" y="4695827"/>
-          <a:ext cx="828675" cy="9523"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cmpd="sng">
-          <a:headEnd type="none" w="lg" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5800725" y="5114926"/>
-          <a:ext cx="876300" cy="19049"/>
+          <a:off x="5781675" y="3209925"/>
+          <a:ext cx="847725" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1999,7 +1855,7 @@
   <dimension ref="B2:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2094,7 +1950,7 @@
     </row>
     <row r="6" spans="2:24" s="17" customFormat="1" ht="28.5" customHeight="1">
       <c r="B6" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>10</v>
@@ -2123,7 +1979,7 @@
     </row>
     <row r="7" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
       <c r="B7" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>13</v>
@@ -2152,10 +2008,10 @@
     </row>
     <row r="8" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
       <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2181,7 +2037,7 @@
     </row>
     <row r="9" spans="2:24" s="17" customFormat="1" ht="31.5" customHeight="1">
       <c r="B9" s="22" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>12</v>
@@ -2210,7 +2066,7 @@
     </row>
     <row r="10" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
       <c r="B10" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>10</v>
@@ -2239,7 +2095,7 @@
     </row>
     <row r="11" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
       <c r="B11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>13</v>
@@ -2268,7 +2124,7 @@
     </row>
     <row r="12" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>11</v>
@@ -2297,7 +2153,7 @@
     </row>
     <row r="13" spans="2:24" s="17" customFormat="1" ht="36" customHeight="1">
       <c r="B13" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>10</v>
@@ -2326,7 +2182,7 @@
     </row>
     <row r="14" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
       <c r="B14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>13</v>
@@ -2355,7 +2211,7 @@
     </row>
     <row r="15" spans="2:24" s="17" customFormat="1" ht="37.5" customHeight="1">
       <c r="B15" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>11</v>
@@ -2384,7 +2240,7 @@
     </row>
     <row r="16" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>10</v>

--- a/项目进度及规范/环渤海项目安排进度.xlsx
+++ b/项目进度及规范/环渤海项目安排进度.xlsx
@@ -369,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,9 +412,6 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,19 +424,10 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1852,27 +1840,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X22"/>
+  <dimension ref="B2:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="27.625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="16" customWidth="1"/>
-    <col min="4" max="24" width="5.625" style="15" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="27.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="15" customWidth="1"/>
+    <col min="4" max="19" width="5.625" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1913,17 +1901,12 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
@@ -1942,17 +1925,12 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="2:24" s="17" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:19" s="16" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="13"/>
@@ -1971,17 +1949,12 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="13"/>
@@ -2000,17 +1973,12 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13"/>
@@ -2029,17 +1997,12 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="2:24" s="17" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:19" s="16" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="13"/>
@@ -2058,17 +2021,12 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="13"/>
@@ -2087,17 +2045,12 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="13"/>
@@ -2116,17 +2069,12 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
@@ -2145,17 +2093,12 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="2:24" s="17" customFormat="1" ht="36" customHeight="1">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:19" s="16" customFormat="1" ht="36" customHeight="1">
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="13"/>
@@ -2174,17 +2117,12 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="2:24" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="2:19" s="16" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="13"/>
@@ -2203,17 +2141,12 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="2:24" s="17" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:19" s="16" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
@@ -2232,17 +2165,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="2:24" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="2:19" s="16" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="13"/>
@@ -2261,14 +2189,9 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="22"/>
+    <row r="17" spans="2:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="19"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2286,141 +2209,11 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-    </row>
-    <row r="18" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-    </row>
-    <row r="19" spans="2:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-    </row>
-    <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-    </row>
-    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-    </row>
-    <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
